--- a/Code/Results/Cases/Case_1_218/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_218/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1990438065561193</v>
+        <v>0.06958889789029854</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.02121431520740558</v>
+        <v>0.01865746595503026</v>
       </c>
       <c r="E2">
-        <v>0.2360881979786527</v>
+        <v>0.1253897863139528</v>
       </c>
       <c r="F2">
-        <v>0.8528273819731425</v>
+        <v>0.8338999087808929</v>
       </c>
       <c r="G2">
-        <v>0.7796705186740667</v>
+        <v>0.6853892590213491</v>
       </c>
       <c r="H2">
-        <v>0.4815915897558511</v>
+        <v>0.7456160989791414</v>
       </c>
       <c r="I2">
-        <v>0.226829319215641</v>
+        <v>0.4797590421002109</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>2.244343759995161</v>
+        <v>0.6878161537638903</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.8521387443366208</v>
+        <v>0.3028016575899173</v>
       </c>
       <c r="N2">
-        <v>0.6765769804276331</v>
+        <v>1.398722012147433</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1733537391811382</v>
+        <v>0.06157872697281164</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.02031235746301974</v>
+        <v>0.01826407897105753</v>
       </c>
       <c r="E3">
-        <v>0.2057474908815564</v>
+        <v>0.1182100319822865</v>
       </c>
       <c r="F3">
-        <v>0.7710746273651523</v>
+        <v>0.819160508377351</v>
       </c>
       <c r="G3">
-        <v>0.7023849249391532</v>
+        <v>0.6708967082266781</v>
       </c>
       <c r="H3">
-        <v>0.4527913147026368</v>
+        <v>0.7438408254652558</v>
       </c>
       <c r="I3">
-        <v>0.2353666123492477</v>
+        <v>0.485014859274127</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.946577894114739</v>
+        <v>0.6016167525981757</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.7359906553664004</v>
+        <v>0.271200669196098</v>
       </c>
       <c r="N3">
-        <v>0.7191910416397729</v>
+        <v>1.415878419800123</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1575668145345617</v>
+        <v>0.05666112932409817</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0197570563466769</v>
+        <v>0.01802051241072178</v>
       </c>
       <c r="E4">
-        <v>0.1875567020238265</v>
+        <v>0.1138949797749618</v>
       </c>
       <c r="F4">
-        <v>0.7226205589906414</v>
+        <v>0.8107056705196953</v>
       </c>
       <c r="G4">
-        <v>0.6566972756258167</v>
+        <v>0.6625382463223701</v>
       </c>
       <c r="H4">
-        <v>0.4361177405236134</v>
+        <v>0.7431806631114597</v>
       </c>
       <c r="I4">
-        <v>0.2410910375841535</v>
+        <v>0.4884748238995886</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.764848491439182</v>
+        <v>0.5486881255251035</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.6654842532033598</v>
+        <v>0.2519036850950584</v>
       </c>
       <c r="N4">
-        <v>0.7465207411171164</v>
+        <v>1.426943602025025</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1511290611763201</v>
+        <v>0.05465750990107665</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.01953032731687543</v>
+        <v>0.01792075682837435</v>
       </c>
       <c r="E5">
-        <v>0.1802417330424646</v>
+        <v>0.112159804951169</v>
       </c>
       <c r="F5">
-        <v>0.7032769603228104</v>
+        <v>0.8074095121924074</v>
       </c>
       <c r="G5">
-        <v>0.6384850919890255</v>
+        <v>0.6592673441217016</v>
       </c>
       <c r="H5">
-        <v>0.4295595909642032</v>
+        <v>0.7430195921829608</v>
       </c>
       <c r="I5">
-        <v>0.2435408668963213</v>
+        <v>0.48994331373782</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.691013969116796</v>
+        <v>0.5271188101892506</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.6369262341142914</v>
+        <v>0.2440664085499407</v>
       </c>
       <c r="N5">
-        <v>0.7579415394208766</v>
+        <v>1.431586183321083</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1500597759258255</v>
+        <v>0.05432483607913241</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01949265098269848</v>
+        <v>0.01790416254644711</v>
       </c>
       <c r="E6">
-        <v>0.1790326576267418</v>
+        <v>0.1118730777118557</v>
       </c>
       <c r="F6">
-        <v>0.7000882214689383</v>
+        <v>0.8068711902939611</v>
       </c>
       <c r="G6">
-        <v>0.6354844186225819</v>
+        <v>0.6587323652439068</v>
       </c>
       <c r="H6">
-        <v>0.4284844074594929</v>
+        <v>0.7429993623225783</v>
       </c>
       <c r="I6">
-        <v>0.2439546105428541</v>
+        <v>0.4901906892804622</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.678765656897525</v>
+        <v>0.5235372134967804</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.6321938757383805</v>
+        <v>0.2427666208832377</v>
       </c>
       <c r="N6">
-        <v>0.7598548350202456</v>
+        <v>1.432365135936329</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1574800122428286</v>
+        <v>0.05663410620226728</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01975400045322928</v>
+        <v>0.01801916908512169</v>
       </c>
       <c r="E7">
-        <v>0.1874576689975171</v>
+        <v>0.1138714847872677</v>
       </c>
       <c r="F7">
-        <v>0.7223581038043534</v>
+        <v>0.8106606135923329</v>
       </c>
       <c r="G7">
-        <v>0.6564500649307945</v>
+        <v>0.6624935869499353</v>
       </c>
       <c r="H7">
-        <v>0.4360283598631014</v>
+        <v>0.7431780539564556</v>
       </c>
       <c r="I7">
-        <v>0.2411236082364425</v>
+        <v>0.4884943915394722</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.763851905563286</v>
+        <v>0.5483972360989355</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.6650984431642541</v>
+        <v>0.2517978823269686</v>
       </c>
       <c r="N7">
-        <v>0.7466736288207301</v>
+        <v>1.427005673404151</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.190187867828115</v>
+        <v>0.06682694961325808</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02090358827040362</v>
+        <v>0.01852225175682065</v>
       </c>
       <c r="E8">
-        <v>0.2255279946062672</v>
+        <v>0.1228946928539187</v>
       </c>
       <c r="F8">
-        <v>0.8242547660918547</v>
+        <v>0.8286939699133598</v>
       </c>
       <c r="G8">
-        <v>0.7526321319996896</v>
+        <v>0.68027980525099</v>
       </c>
       <c r="H8">
-        <v>0.4714407576259845</v>
+        <v>0.7449146781294473</v>
       </c>
       <c r="I8">
-        <v>0.2296702110812667</v>
+        <v>0.4815228968491923</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>2.141411450366689</v>
+        <v>0.6580949522713695</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.8119045419080777</v>
+        <v>0.2918834196355604</v>
       </c>
       <c r="N8">
-        <v>0.6910229751520625</v>
+        <v>1.40452724888517</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.2542828545417422</v>
+        <v>0.08681396115937901</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02314973679003529</v>
+        <v>0.01949237789740366</v>
       </c>
       <c r="E9">
-        <v>0.3042703193945755</v>
+        <v>0.1413411631070502</v>
       </c>
       <c r="F9">
-        <v>1.039671965926516</v>
+        <v>0.8688018985287016</v>
       </c>
       <c r="G9">
-        <v>0.9571207531169819</v>
+        <v>0.7194712097754064</v>
       </c>
       <c r="H9">
-        <v>0.5497509519495907</v>
+        <v>0.7517386422644563</v>
       </c>
       <c r="I9">
-        <v>0.2112412541591588</v>
+        <v>0.4697008710587802</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2.893245445396701</v>
+        <v>0.8732085228993753</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.107663276238789</v>
+        <v>0.3713505521204041</v>
       </c>
       <c r="N9">
-        <v>0.5915683762342905</v>
+        <v>1.364665417619824</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.3014385784867244</v>
+        <v>0.1014904173427311</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02480148976373542</v>
+        <v>0.02019472959581847</v>
       </c>
       <c r="E10">
-        <v>0.3655421346957155</v>
+        <v>0.1553693624735359</v>
       </c>
       <c r="F10">
-        <v>1.210135393825013</v>
+        <v>0.9011963154165841</v>
       </c>
       <c r="G10">
-        <v>1.119863514128326</v>
+        <v>0.7509369080692352</v>
       </c>
       <c r="H10">
-        <v>0.6139855181411917</v>
+        <v>0.7588486718985621</v>
       </c>
       <c r="I10">
-        <v>0.200459444612477</v>
+        <v>0.4621441648276878</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>3.456750456858288</v>
+        <v>1.03128208921629</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.331980572363847</v>
+        <v>0.4302888706820482</v>
       </c>
       <c r="N10">
-        <v>0.5250488689374517</v>
+        <v>1.337955575901201</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.3229275512234153</v>
+        <v>0.1081639210876517</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.0255551009731434</v>
+        <v>0.0205119137402221</v>
       </c>
       <c r="E11">
-        <v>0.3943905891480881</v>
+        <v>0.1618582172864222</v>
       </c>
       <c r="F11">
-        <v>1.290994302549763</v>
+        <v>0.9165767556580988</v>
       </c>
       <c r="G11">
-        <v>1.197312558081904</v>
+        <v>0.7658410851003907</v>
       </c>
       <c r="H11">
-        <v>0.6449821716049655</v>
+        <v>0.7625412783351351</v>
       </c>
       <c r="I11">
-        <v>0.1962258930198288</v>
+        <v>0.4589519337000176</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>3.716552019838048</v>
+        <v>1.103208110528556</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.436106240409799</v>
+        <v>0.4572285004743719</v>
       </c>
       <c r="N11">
-        <v>0.4963691469735991</v>
+        <v>1.326365178151516</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.3310721953412639</v>
+        <v>0.1106904339581689</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.02584098057269202</v>
+        <v>0.02063168211895317</v>
       </c>
       <c r="E12">
-        <v>0.4054766617332746</v>
+        <v>0.1643310936420903</v>
       </c>
       <c r="F12">
-        <v>1.322151179236201</v>
+        <v>0.9224940853589487</v>
       </c>
       <c r="G12">
-        <v>1.227196336699166</v>
+        <v>0.7715704757697495</v>
       </c>
       <c r="H12">
-        <v>0.657004801452274</v>
+        <v>0.7640056645557252</v>
       </c>
       <c r="I12">
-        <v>0.1947259098371248</v>
+        <v>0.4577784382946142</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>3.81552456834055</v>
+        <v>1.130447432383505</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.475886590078318</v>
+        <v>0.4674487081792478</v>
       </c>
       <c r="N12">
-        <v>0.4857510320234937</v>
+        <v>1.322056863995835</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.3293177479588962</v>
+        <v>0.1101463337117394</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.02577938561111282</v>
+        <v>0.02060590322140143</v>
       </c>
       <c r="E13">
-        <v>0.4030815149031568</v>
+        <v>0.1637978137511453</v>
       </c>
       <c r="F13">
-        <v>1.315416057084335</v>
+        <v>0.9212155346832134</v>
       </c>
       <c r="G13">
-        <v>1.220734532933164</v>
+        <v>0.7703327363062158</v>
       </c>
       <c r="H13">
-        <v>0.6544023423583383</v>
+        <v>0.763687341048211</v>
       </c>
       <c r="I13">
-        <v>0.1950442574356757</v>
+        <v>0.4580295992418684</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>3.79418116383448</v>
+        <v>1.124580846292929</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.467302739119219</v>
+        <v>0.4652467645655349</v>
       </c>
       <c r="N13">
-        <v>0.4880268036760196</v>
+        <v>1.322981143606135</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.323597459965896</v>
+        <v>0.1083717918541254</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.02557860919906574</v>
+        <v>0.02052177406901379</v>
       </c>
       <c r="E14">
-        <v>0.3952992731476783</v>
+        <v>0.162061346465542</v>
       </c>
       <c r="F14">
-        <v>1.293546458573189</v>
+        <v>0.9170617095190892</v>
       </c>
       <c r="G14">
-        <v>1.199759590794372</v>
+        <v>0.7663107283538011</v>
       </c>
       <c r="H14">
-        <v>0.6459653920479127</v>
+        <v>0.7626604289351633</v>
       </c>
       <c r="I14">
-        <v>0.1961003806559134</v>
+        <v>0.4588546810978578</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>3.724682128648283</v>
+        <v>1.105449055990505</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.439371665305259</v>
+        <v>0.4580689454790274</v>
       </c>
       <c r="N14">
-        <v>0.4954906417165379</v>
+        <v>1.326009111776301</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.32009461759597</v>
+        <v>0.1072847504195522</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.02545569943095316</v>
+        <v>0.02047019768600578</v>
       </c>
       <c r="E15">
-        <v>0.390554172325551</v>
+        <v>0.1609997605889362</v>
       </c>
       <c r="F15">
-        <v>1.280222583842118</v>
+        <v>0.9145295090121124</v>
       </c>
       <c r="G15">
-        <v>1.186986190682205</v>
+        <v>0.7638582857756262</v>
       </c>
       <c r="H15">
-        <v>0.6408355397171306</v>
+        <v>0.7620400262304372</v>
       </c>
       <c r="I15">
-        <v>0.1967609297214814</v>
+        <v>0.4593646705338408</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>3.682191916994441</v>
+        <v>1.093730606694749</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.422310280764663</v>
+        <v>0.453674775570363</v>
       </c>
       <c r="N15">
-        <v>0.5000944788174309</v>
+        <v>1.327874347103792</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.3000351333085263</v>
+        <v>0.101054214404499</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.02475229918409028</v>
+        <v>0.02017395343421668</v>
       </c>
       <c r="E16">
-        <v>0.3636782383707384</v>
+        <v>0.1549474821831396</v>
       </c>
       <c r="F16">
-        <v>1.204922827562115</v>
+        <v>0.9002041681927437</v>
       </c>
       <c r="G16">
-        <v>1.1148761333869</v>
+        <v>0.74997481593212</v>
       </c>
       <c r="H16">
-        <v>0.6119980066788742</v>
+        <v>0.7586165876756468</v>
       </c>
       <c r="I16">
-        <v>0.2007501792765041</v>
+        <v>0.4623577261835763</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>3.439849244599486</v>
+        <v>1.026581905553996</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.32522184237267</v>
+        <v>0.4285309102096164</v>
       </c>
       <c r="N16">
-        <v>0.5269562096720755</v>
+        <v>1.338724320830661</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.2877401762600584</v>
+        <v>0.09723111209878255</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.02432147562966236</v>
+        <v>0.01999161680616268</v>
       </c>
       <c r="E17">
-        <v>0.347455194146626</v>
+        <v>0.1512622794485594</v>
       </c>
       <c r="F17">
-        <v>1.159619151392391</v>
+        <v>0.8915813320514019</v>
       </c>
       <c r="G17">
-        <v>1.07155775368858</v>
+        <v>0.7416093814059508</v>
       </c>
       <c r="H17">
-        <v>0.5947820785253555</v>
+        <v>0.7566339106832629</v>
       </c>
       <c r="I17">
-        <v>0.2033739203599723</v>
+        <v>0.4642567463271874</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>3.292129923657029</v>
+        <v>0.9853928297657717</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.266229132723765</v>
+        <v>0.4131390390733287</v>
       </c>
       <c r="N17">
-        <v>0.5438500367651216</v>
+        <v>1.345523998809208</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.2806718630639722</v>
+        <v>0.09503190364840464</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.02407387348771906</v>
+        <v>0.0198865238279744</v>
       </c>
       <c r="E18">
-        <v>0.3382145418993687</v>
+        <v>0.1491527381650002</v>
       </c>
       <c r="F18">
-        <v>1.13386965761002</v>
+        <v>0.886682297863274</v>
       </c>
       <c r="G18">
-        <v>1.046959551211174</v>
+        <v>0.7368533266566146</v>
       </c>
       <c r="H18">
-        <v>0.5850451725096093</v>
+        <v>0.7555366457704622</v>
       </c>
       <c r="I18">
-        <v>0.2049457685714913</v>
+        <v>0.465372103094456</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>3.207485234834678</v>
+        <v>0.9617036171944733</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.232490780960632</v>
+        <v>0.404298098972717</v>
       </c>
       <c r="N18">
-        <v>0.5537146909005468</v>
+        <v>1.34948769637311</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.2782791877746149</v>
+        <v>0.09428725018126727</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.02399006825948291</v>
+        <v>0.01985090402169121</v>
       </c>
       <c r="E19">
-        <v>0.3351007257541738</v>
+        <v>0.1484402090805261</v>
       </c>
       <c r="F19">
-        <v>1.12520246010402</v>
+        <v>0.885033961530965</v>
       </c>
       <c r="G19">
-        <v>1.038683677776646</v>
+        <v>0.7352525252919691</v>
       </c>
       <c r="H19">
-        <v>0.5817759518249801</v>
+        <v>0.7551725307642982</v>
       </c>
       <c r="I19">
-        <v>0.2054885512190481</v>
+        <v>0.4657537079924232</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>3.178878176561454</v>
+        <v>0.9536831419092096</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.221099187518831</v>
+        <v>0.4013067700928445</v>
       </c>
       <c r="N19">
-        <v>0.5570796375553222</v>
+        <v>1.350838782441432</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.2890486285752445</v>
+        <v>0.09763811621589014</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.02436731599860664</v>
+        <v>0.02001104945521348</v>
       </c>
       <c r="E20">
-        <v>0.3491726588705006</v>
+        <v>0.1516535295033421</v>
       </c>
       <c r="F20">
-        <v>1.16440950837594</v>
+        <v>0.8924929730778217</v>
       </c>
       <c r="G20">
-        <v>1.076135775902515</v>
+        <v>0.7424941453838301</v>
       </c>
       <c r="H20">
-        <v>0.5965974373180529</v>
+        <v>0.756840506097177</v>
       </c>
       <c r="I20">
-        <v>0.2030880786084843</v>
+        <v>0.4640522022236127</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>3.307821175284062</v>
+        <v>0.989777306190831</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.272488713118264</v>
+        <v>0.4147762799648547</v>
       </c>
       <c r="N20">
-        <v>0.5420362617667056</v>
+        <v>1.344794705624858</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.3252774355070471</v>
+        <v>0.1088930355000315</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.02563756680482498</v>
+        <v>0.02054649420216847</v>
       </c>
       <c r="E21">
-        <v>0.3975805324784787</v>
+        <v>0.1625709612342092</v>
       </c>
       <c r="F21">
-        <v>1.299954991847045</v>
+        <v>0.9182792583943069</v>
       </c>
       <c r="G21">
-        <v>1.205904819972574</v>
+        <v>0.7674897641068412</v>
       </c>
       <c r="H21">
-        <v>0.6484355480329214</v>
+        <v>0.762960263137245</v>
       </c>
       <c r="I21">
-        <v>0.1957873157732521</v>
+        <v>0.4586113752074894</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>3.74507883660948</v>
+        <v>1.111068458940736</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.447565763213021</v>
+        <v>0.4601767334892486</v>
       </c>
       <c r="N21">
-        <v>0.4932916296576639</v>
+        <v>1.325117531975753</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.3489981906162853</v>
+        <v>0.1162452049927793</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.02647079342500192</v>
+        <v>0.02089443869765262</v>
       </c>
       <c r="E22">
-        <v>0.430172601945543</v>
+        <v>0.1697976921437387</v>
       </c>
       <c r="F22">
-        <v>1.391706602692864</v>
+        <v>0.935674913795765</v>
       </c>
       <c r="G22">
-        <v>1.293988852142974</v>
+        <v>0.7843245093790188</v>
       </c>
       <c r="H22">
-        <v>0.6839910540244887</v>
+        <v>0.7673451089029584</v>
       </c>
       <c r="I22">
-        <v>0.1916207096066351</v>
+        <v>0.4552614536973749</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>4.034349360737394</v>
+        <v>1.190353793963368</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.564057561824598</v>
+        <v>0.4899580145983577</v>
       </c>
       <c r="N22">
-        <v>0.4628543567131995</v>
+        <v>1.312727935574669</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.3363333872080005</v>
+        <v>0.1123216006879488</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.02602573645737749</v>
+        <v>0.02070892001968971</v>
       </c>
       <c r="E23">
-        <v>0.4126825228754853</v>
+        <v>0.1659321891893484</v>
       </c>
       <c r="F23">
-        <v>1.342425785564757</v>
+        <v>0.926340698345868</v>
       </c>
       <c r="G23">
-        <v>1.246654394718234</v>
+        <v>0.7752936550378422</v>
       </c>
       <c r="H23">
-        <v>0.6648505042034856</v>
+        <v>0.7649695238224297</v>
       </c>
       <c r="I23">
-        <v>0.1937868107775138</v>
+        <v>0.4570305060515203</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>3.879606698939995</v>
+        <v>1.148036394183009</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.501676219757044</v>
+        <v>0.4740530668160545</v>
       </c>
       <c r="N23">
-        <v>0.4789640208227741</v>
+        <v>1.319297376902389</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.2884570767306371</v>
+        <v>0.09745411355333999</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.02434659131945338</v>
+        <v>0.0200022647797482</v>
       </c>
       <c r="E24">
-        <v>0.3483959261963676</v>
+        <v>0.1514766169339197</v>
       </c>
       <c r="F24">
-        <v>1.162242869929514</v>
+        <v>0.8920806384466289</v>
       </c>
       <c r="G24">
-        <v>1.074065103367531</v>
+        <v>0.7420939774667943</v>
       </c>
       <c r="H24">
-        <v>0.5957762150675308</v>
+        <v>0.7567469716120456</v>
       </c>
       <c r="I24">
-        <v>0.2032171106080831</v>
+        <v>0.4641446031493537</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>3.300726291775788</v>
+        <v>0.987795112641578</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.269658208208327</v>
+        <v>0.4140360583081559</v>
       </c>
       <c r="N24">
-        <v>0.5428557965936616</v>
+        <v>1.345124249398722</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.2369391225670654</v>
+        <v>0.08140782391967605</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.02254237330455311</v>
+        <v>0.01923173187576666</v>
       </c>
       <c r="E25">
-        <v>0.282440319451851</v>
+        <v>0.1362686321030893</v>
       </c>
       <c r="F25">
-        <v>0.9794624725254408</v>
+        <v>0.8574401253461872</v>
       </c>
       <c r="G25">
-        <v>0.8998245331070223</v>
+        <v>0.7084027967966051</v>
       </c>
       <c r="H25">
-        <v>0.5274898887536636</v>
+        <v>0.7495253284996437</v>
       </c>
       <c r="I25">
-        <v>0.2157655262206433</v>
+        <v>0.4727009136054434</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>2.688222657640551</v>
+        <v>0.8150117062861</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.026592460781558</v>
+        <v>0.3497574968171264</v>
       </c>
       <c r="N25">
-        <v>0.6173736890790131</v>
+        <v>1.374996993277753</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_218/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_218/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.06958889789029854</v>
+        <v>0.1990438065561335</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.01865746595503026</v>
+        <v>0.02121431520758676</v>
       </c>
       <c r="E2">
-        <v>0.1253897863139528</v>
+        <v>0.2360881979786598</v>
       </c>
       <c r="F2">
-        <v>0.8338999087808929</v>
+        <v>0.8528273819731425</v>
       </c>
       <c r="G2">
-        <v>0.6853892590213491</v>
+        <v>0.7796705186740525</v>
       </c>
       <c r="H2">
-        <v>0.7456160989791414</v>
+        <v>0.4815915897558369</v>
       </c>
       <c r="I2">
-        <v>0.4797590421002109</v>
+        <v>0.226829319215657</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.6878161537638903</v>
+        <v>2.244343759995076</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3028016575899173</v>
+        <v>0.8521387443366351</v>
       </c>
       <c r="N2">
-        <v>1.398722012147433</v>
+        <v>0.6765769804276225</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.06157872697281164</v>
+        <v>0.1733537391811524</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.01826407897105753</v>
+        <v>0.02031235746290605</v>
       </c>
       <c r="E3">
-        <v>0.1182100319822865</v>
+        <v>0.2057474908815635</v>
       </c>
       <c r="F3">
-        <v>0.819160508377351</v>
+        <v>0.7710746273651665</v>
       </c>
       <c r="G3">
-        <v>0.6708967082266781</v>
+        <v>0.7023849249391105</v>
       </c>
       <c r="H3">
-        <v>0.7438408254652558</v>
+        <v>0.4527913147026226</v>
       </c>
       <c r="I3">
-        <v>0.485014859274127</v>
+        <v>0.2353666123492619</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.6016167525981757</v>
+        <v>1.946577894114711</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.271200669196098</v>
+        <v>0.7359906553664004</v>
       </c>
       <c r="N3">
-        <v>1.415878419800123</v>
+        <v>0.7191910416398244</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.05666112932409817</v>
+        <v>0.157566814534448</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.01802051241072178</v>
+        <v>0.0197570563466698</v>
       </c>
       <c r="E4">
-        <v>0.1138949797749618</v>
+        <v>0.1875567020238194</v>
       </c>
       <c r="F4">
-        <v>0.8107056705196953</v>
+        <v>0.7226205589906414</v>
       </c>
       <c r="G4">
-        <v>0.6625382463223701</v>
+        <v>0.6566972756258735</v>
       </c>
       <c r="H4">
-        <v>0.7431806631114597</v>
+        <v>0.4361177405237271</v>
       </c>
       <c r="I4">
-        <v>0.4884748238995886</v>
+        <v>0.2410910375841659</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.5486881255251035</v>
+        <v>1.764848491439238</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2519036850950584</v>
+        <v>0.6654842532033598</v>
       </c>
       <c r="N4">
-        <v>1.426943602025025</v>
+        <v>0.7465207411171093</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.05465750990107665</v>
+        <v>0.1511290611763485</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.01792075682837435</v>
+        <v>0.01953032731675819</v>
       </c>
       <c r="E5">
-        <v>0.112159804951169</v>
+        <v>0.1802417330424859</v>
       </c>
       <c r="F5">
-        <v>0.8074095121924074</v>
+        <v>0.7032769603227962</v>
       </c>
       <c r="G5">
-        <v>0.6592673441217016</v>
+        <v>0.6384850919890397</v>
       </c>
       <c r="H5">
-        <v>0.7430195921829608</v>
+        <v>0.4295595909642884</v>
       </c>
       <c r="I5">
-        <v>0.48994331373782</v>
+        <v>0.2435408668963177</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.5271188101892506</v>
+        <v>1.691013969116597</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2440664085499407</v>
+        <v>0.6369262341142914</v>
       </c>
       <c r="N5">
-        <v>1.431586183321083</v>
+        <v>0.7579415394208127</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05432483607913241</v>
+        <v>0.150059775925854</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01790416254644711</v>
+        <v>0.0194926509826594</v>
       </c>
       <c r="E6">
-        <v>0.1118730777118557</v>
+        <v>0.1790326576267489</v>
       </c>
       <c r="F6">
-        <v>0.8068711902939611</v>
+        <v>0.7000882214689312</v>
       </c>
       <c r="G6">
-        <v>0.6587323652439068</v>
+        <v>0.6354844186225819</v>
       </c>
       <c r="H6">
-        <v>0.7429993623225783</v>
+        <v>0.4284844074593934</v>
       </c>
       <c r="I6">
-        <v>0.4901906892804622</v>
+        <v>0.2439546105428505</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.5235372134967804</v>
+        <v>1.67876565689744</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2427666208832377</v>
+        <v>0.6321938757383663</v>
       </c>
       <c r="N6">
-        <v>1.432365135936329</v>
+        <v>0.7598548350202421</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.05663410620226728</v>
+        <v>0.1574800122428002</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01801916908512169</v>
+        <v>0.01975400045316889</v>
       </c>
       <c r="E7">
-        <v>0.1138714847872677</v>
+        <v>0.1874576689975243</v>
       </c>
       <c r="F7">
-        <v>0.8106606135923329</v>
+        <v>0.7223581038043534</v>
       </c>
       <c r="G7">
-        <v>0.6624935869499353</v>
+        <v>0.6564500649308087</v>
       </c>
       <c r="H7">
-        <v>0.7431780539564556</v>
+        <v>0.4360283598629877</v>
       </c>
       <c r="I7">
-        <v>0.4884943915394722</v>
+        <v>0.2411236082364425</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.5483972360989355</v>
+        <v>1.763851905563314</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2517978823269686</v>
+        <v>0.6650984431642684</v>
       </c>
       <c r="N7">
-        <v>1.427005673404151</v>
+        <v>0.7466736288207922</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.06682694961325808</v>
+        <v>0.1901878678282003</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01852225175682065</v>
+        <v>0.02090358827034322</v>
       </c>
       <c r="E8">
-        <v>0.1228946928539187</v>
+        <v>0.2255279946062672</v>
       </c>
       <c r="F8">
-        <v>0.8286939699133598</v>
+        <v>0.8242547660918547</v>
       </c>
       <c r="G8">
-        <v>0.68027980525099</v>
+        <v>0.7526321319997038</v>
       </c>
       <c r="H8">
-        <v>0.7449146781294473</v>
+        <v>0.4714407576258708</v>
       </c>
       <c r="I8">
-        <v>0.4815228968491923</v>
+        <v>0.2296702110812667</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.6580949522713695</v>
+        <v>2.141411450366718</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2918834196355604</v>
+        <v>0.8119045419080564</v>
       </c>
       <c r="N8">
-        <v>1.40452724888517</v>
+        <v>0.6910229751520678</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08681396115937901</v>
+        <v>0.2542828545417279</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01949237789740366</v>
+        <v>0.0231497367901774</v>
       </c>
       <c r="E9">
-        <v>0.1413411631070502</v>
+        <v>0.3042703193945755</v>
       </c>
       <c r="F9">
-        <v>0.8688018985287016</v>
+        <v>1.039671965926544</v>
       </c>
       <c r="G9">
-        <v>0.7194712097754064</v>
+        <v>0.9571207531169676</v>
       </c>
       <c r="H9">
-        <v>0.7517386422644563</v>
+        <v>0.5497509519495907</v>
       </c>
       <c r="I9">
-        <v>0.4697008710587802</v>
+        <v>0.2112412541591802</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.8732085228993753</v>
+        <v>2.893245445396673</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.3713505521204041</v>
+        <v>1.107663276238782</v>
       </c>
       <c r="N9">
-        <v>1.364665417619824</v>
+        <v>0.5915683762342976</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1014904173427311</v>
+        <v>0.301438578486696</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02019472959581847</v>
+        <v>0.02480148976384555</v>
       </c>
       <c r="E10">
-        <v>0.1553693624735359</v>
+        <v>0.3655421346957155</v>
       </c>
       <c r="F10">
-        <v>0.9011963154165841</v>
+        <v>1.210135393824999</v>
       </c>
       <c r="G10">
-        <v>0.7509369080692352</v>
+        <v>1.119863514128383</v>
       </c>
       <c r="H10">
-        <v>0.7588486718985621</v>
+        <v>0.6139855181411917</v>
       </c>
       <c r="I10">
-        <v>0.4621441648276878</v>
+        <v>0.200459444612477</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.03128208921629</v>
+        <v>3.456750456858344</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.4302888706820482</v>
+        <v>1.331980572363832</v>
       </c>
       <c r="N10">
-        <v>1.337955575901201</v>
+        <v>0.52504886893745</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.1081639210876517</v>
+        <v>0.3229275512234437</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.0205119137402221</v>
+        <v>0.0255551009731434</v>
       </c>
       <c r="E11">
-        <v>0.1618582172864222</v>
+        <v>0.394390589148081</v>
       </c>
       <c r="F11">
-        <v>0.9165767556580988</v>
+        <v>1.290994302549763</v>
       </c>
       <c r="G11">
-        <v>0.7658410851003907</v>
+        <v>1.197312558081904</v>
       </c>
       <c r="H11">
-        <v>0.7625412783351351</v>
+        <v>0.6449821716048518</v>
       </c>
       <c r="I11">
-        <v>0.4589519337000176</v>
+        <v>0.1962258930198466</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.103208110528556</v>
+        <v>3.716552019838161</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.4572285004743719</v>
+        <v>1.436106240409799</v>
       </c>
       <c r="N11">
-        <v>1.326365178151516</v>
+        <v>0.4963691469736027</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.1106904339581689</v>
+        <v>0.3310721953412781</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.02063168211895317</v>
+        <v>0.02584098057278084</v>
       </c>
       <c r="E12">
-        <v>0.1643310936420903</v>
+        <v>0.4054766617332675</v>
       </c>
       <c r="F12">
-        <v>0.9224940853589487</v>
+        <v>1.322151179236187</v>
       </c>
       <c r="G12">
-        <v>0.7715704757697495</v>
+        <v>1.227196336699166</v>
       </c>
       <c r="H12">
-        <v>0.7640056645557252</v>
+        <v>0.657004801452274</v>
       </c>
       <c r="I12">
-        <v>0.4577784382946142</v>
+        <v>0.1947259098371106</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.130447432383505</v>
+        <v>3.815524568340606</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.4674487081792478</v>
+        <v>1.475886590078346</v>
       </c>
       <c r="N12">
-        <v>1.322056863995835</v>
+        <v>0.4857510320235097</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.1101463337117394</v>
+        <v>0.3293177479589957</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.02060590322140143</v>
+        <v>0.02577938561111282</v>
       </c>
       <c r="E13">
-        <v>0.1637978137511453</v>
+        <v>0.4030815149031639</v>
       </c>
       <c r="F13">
-        <v>0.9212155346832134</v>
+        <v>1.315416057084335</v>
       </c>
       <c r="G13">
-        <v>0.7703327363062158</v>
+        <v>1.220734532933164</v>
       </c>
       <c r="H13">
-        <v>0.763687341048211</v>
+        <v>0.6544023423583383</v>
       </c>
       <c r="I13">
-        <v>0.4580295992418684</v>
+        <v>0.1950442574356757</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.124580846292929</v>
+        <v>3.794181163834594</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.4652467645655349</v>
+        <v>1.467302739119262</v>
       </c>
       <c r="N13">
-        <v>1.322981143606135</v>
+        <v>0.4880268036760125</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.1083717918541254</v>
+        <v>0.3235974599657681</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.02052177406901379</v>
+        <v>0.02557860919898758</v>
       </c>
       <c r="E14">
-        <v>0.162061346465542</v>
+        <v>0.3952992731476499</v>
       </c>
       <c r="F14">
-        <v>0.9170617095190892</v>
+        <v>1.293546458573175</v>
       </c>
       <c r="G14">
-        <v>0.7663107283538011</v>
+        <v>1.199759590794315</v>
       </c>
       <c r="H14">
-        <v>0.7626604289351633</v>
+        <v>0.6459653920480264</v>
       </c>
       <c r="I14">
-        <v>0.4588546810978578</v>
+        <v>0.1961003806559134</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.105449055990505</v>
+        <v>3.72468212864834</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.4580689454790274</v>
+        <v>1.439371665305259</v>
       </c>
       <c r="N14">
-        <v>1.326009111776301</v>
+        <v>0.4954906417164739</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.1072847504195522</v>
+        <v>0.3200946175959416</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.02047019768600578</v>
+        <v>0.02545569943099224</v>
       </c>
       <c r="E15">
-        <v>0.1609997605889362</v>
+        <v>0.3905541723255581</v>
       </c>
       <c r="F15">
-        <v>0.9145295090121124</v>
+        <v>1.280222583842118</v>
       </c>
       <c r="G15">
-        <v>0.7638582857756262</v>
+        <v>1.186986190682148</v>
       </c>
       <c r="H15">
-        <v>0.7620400262304372</v>
+        <v>0.6408355397171306</v>
       </c>
       <c r="I15">
-        <v>0.4593646705338408</v>
+        <v>0.1967609297214814</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.093730606694749</v>
+        <v>3.682191916994384</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.453674775570363</v>
+        <v>1.422310280764648</v>
       </c>
       <c r="N15">
-        <v>1.327874347103792</v>
+        <v>0.5000944788174966</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.101054214404499</v>
+        <v>0.3000351333086542</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.02017395343421668</v>
+        <v>0.02475229918409383</v>
       </c>
       <c r="E16">
-        <v>0.1549474821831396</v>
+        <v>0.3636782383707171</v>
       </c>
       <c r="F16">
-        <v>0.9002041681927437</v>
+        <v>1.204922827562115</v>
       </c>
       <c r="G16">
-        <v>0.74997481593212</v>
+        <v>1.1148761333869</v>
       </c>
       <c r="H16">
-        <v>0.7586165876756468</v>
+        <v>0.6119980066788742</v>
       </c>
       <c r="I16">
-        <v>0.4623577261835763</v>
+        <v>0.2007501792765005</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.026581905553996</v>
+        <v>3.439849244599429</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.4285309102096164</v>
+        <v>1.32522184237267</v>
       </c>
       <c r="N16">
-        <v>1.338724320830661</v>
+        <v>0.5269562096721323</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.09723111209878255</v>
+        <v>0.2877401762598168</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.01999161680616268</v>
+        <v>0.02432147562965881</v>
       </c>
       <c r="E17">
-        <v>0.1512622794485594</v>
+        <v>0.3474551941466331</v>
       </c>
       <c r="F17">
-        <v>0.8915813320514019</v>
+        <v>1.159619151392391</v>
       </c>
       <c r="G17">
-        <v>0.7416093814059508</v>
+        <v>1.071557753688609</v>
       </c>
       <c r="H17">
-        <v>0.7566339106832629</v>
+        <v>0.5947820785254692</v>
       </c>
       <c r="I17">
-        <v>0.4642567463271874</v>
+        <v>0.2033739203599723</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.9853928297657717</v>
+        <v>3.292129923656972</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.4131390390733287</v>
+        <v>1.266229132723751</v>
       </c>
       <c r="N17">
-        <v>1.345523998809208</v>
+        <v>0.5438500367651109</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.09503190364840464</v>
+        <v>0.2806718630639438</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.0198865238279744</v>
+        <v>0.02407387348752721</v>
       </c>
       <c r="E18">
-        <v>0.1491527381650002</v>
+        <v>0.3382145418993332</v>
       </c>
       <c r="F18">
-        <v>0.886682297863274</v>
+        <v>1.13386965761002</v>
       </c>
       <c r="G18">
-        <v>0.7368533266566146</v>
+        <v>1.046959551211145</v>
       </c>
       <c r="H18">
-        <v>0.7555366457704622</v>
+        <v>0.5850451725094956</v>
       </c>
       <c r="I18">
-        <v>0.465372103094456</v>
+        <v>0.2049457685714771</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.9617036171944733</v>
+        <v>3.20748523483465</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.404298098972717</v>
+        <v>1.232490780960617</v>
       </c>
       <c r="N18">
-        <v>1.34948769637311</v>
+        <v>0.5537146909005539</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.09428725018126727</v>
+        <v>0.2782791877746291</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.01985090402169121</v>
+        <v>0.0239900682596037</v>
       </c>
       <c r="E19">
-        <v>0.1484402090805261</v>
+        <v>0.335100725754188</v>
       </c>
       <c r="F19">
-        <v>0.885033961530965</v>
+        <v>1.12520246010402</v>
       </c>
       <c r="G19">
-        <v>0.7352525252919691</v>
+        <v>1.038683677776589</v>
       </c>
       <c r="H19">
-        <v>0.7551725307642982</v>
+        <v>0.5817759518249659</v>
       </c>
       <c r="I19">
-        <v>0.4657537079924232</v>
+        <v>0.2054885512190658</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.9536831419092096</v>
+        <v>3.178878176561625</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.4013067700928445</v>
+        <v>1.221099187518845</v>
       </c>
       <c r="N19">
-        <v>1.350838782441432</v>
+        <v>0.557079637555276</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.09763811621589014</v>
+        <v>0.2890486285753724</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.02001104945521348</v>
+        <v>0.02436731599865283</v>
       </c>
       <c r="E20">
-        <v>0.1516535295033421</v>
+        <v>0.3491726588704793</v>
       </c>
       <c r="F20">
-        <v>0.8924929730778217</v>
+        <v>1.164409508375954</v>
       </c>
       <c r="G20">
-        <v>0.7424941453838301</v>
+        <v>1.076135775902486</v>
       </c>
       <c r="H20">
-        <v>0.756840506097177</v>
+        <v>0.5965974373180245</v>
       </c>
       <c r="I20">
-        <v>0.4640522022236127</v>
+        <v>0.203088078608495</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.989777306190831</v>
+        <v>3.307821175284062</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.4147762799648547</v>
+        <v>1.272488713118278</v>
       </c>
       <c r="N20">
-        <v>1.344794705624858</v>
+        <v>0.5420362617667038</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.1088930355000315</v>
+        <v>0.3252774355068766</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.02054649420216847</v>
+        <v>0.02563756680482854</v>
       </c>
       <c r="E21">
-        <v>0.1625709612342092</v>
+        <v>0.3975805324784787</v>
       </c>
       <c r="F21">
-        <v>0.9182792583943069</v>
+        <v>1.299954991847059</v>
       </c>
       <c r="G21">
-        <v>0.7674897641068412</v>
+        <v>1.20590481997246</v>
       </c>
       <c r="H21">
-        <v>0.762960263137245</v>
+        <v>0.6484355480329214</v>
       </c>
       <c r="I21">
-        <v>0.4586113752074894</v>
+        <v>0.1957873157732628</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.111068458940736</v>
+        <v>3.745078836609366</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.4601767334892486</v>
+        <v>1.447565763213021</v>
       </c>
       <c r="N21">
-        <v>1.325117531975753</v>
+        <v>0.4932916296575929</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.1162452049927793</v>
+        <v>0.3489981906162853</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.02089443869765262</v>
+        <v>0.02647079342500192</v>
       </c>
       <c r="E22">
-        <v>0.1697976921437387</v>
+        <v>0.4301726019455643</v>
       </c>
       <c r="F22">
-        <v>0.935674913795765</v>
+        <v>1.39170660269285</v>
       </c>
       <c r="G22">
-        <v>0.7843245093790188</v>
+        <v>1.29398885214303</v>
       </c>
       <c r="H22">
-        <v>0.7673451089029584</v>
+        <v>0.6839910540244603</v>
       </c>
       <c r="I22">
-        <v>0.4552614536973749</v>
+        <v>0.1916207096066387</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.190353793963368</v>
+        <v>4.034349360737451</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.4899580145983577</v>
+        <v>1.564057561824626</v>
       </c>
       <c r="N22">
-        <v>1.312727935574669</v>
+        <v>0.4628543567131391</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.1123216006879488</v>
+        <v>0.3363333872078726</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.02070892001968971</v>
+        <v>0.02602573645746276</v>
       </c>
       <c r="E23">
-        <v>0.1659321891893484</v>
+        <v>0.412682522875464</v>
       </c>
       <c r="F23">
-        <v>0.926340698345868</v>
+        <v>1.342425785564728</v>
       </c>
       <c r="G23">
-        <v>0.7752936550378422</v>
+        <v>1.246654394718348</v>
       </c>
       <c r="H23">
-        <v>0.7649695238224297</v>
+        <v>0.6648505042034856</v>
       </c>
       <c r="I23">
-        <v>0.4570305060515203</v>
+        <v>0.1937868107774996</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.148036394183009</v>
+        <v>3.879606698940052</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.4740530668160545</v>
+        <v>1.501676219757073</v>
       </c>
       <c r="N23">
-        <v>1.319297376902389</v>
+        <v>0.4789640208227652</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.09745411355333999</v>
+        <v>0.2884570767306656</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.0200022647797482</v>
+        <v>0.02434659131948891</v>
       </c>
       <c r="E24">
-        <v>0.1514766169339197</v>
+        <v>0.3483959261963463</v>
       </c>
       <c r="F24">
-        <v>0.8920806384466289</v>
+        <v>1.162242869929514</v>
       </c>
       <c r="G24">
-        <v>0.7420939774667943</v>
+        <v>1.074065103367587</v>
       </c>
       <c r="H24">
-        <v>0.7567469716120456</v>
+        <v>0.5957762150675308</v>
       </c>
       <c r="I24">
-        <v>0.4641446031493537</v>
+        <v>0.2032171106080831</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.987795112641578</v>
+        <v>3.300726291775845</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.4140360583081559</v>
+        <v>1.269658208208313</v>
       </c>
       <c r="N24">
-        <v>1.345124249398722</v>
+        <v>0.5428557965936545</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.08140782391967605</v>
+        <v>0.2369391225671649</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.01923173187576666</v>
+        <v>0.02254237330473785</v>
       </c>
       <c r="E25">
-        <v>0.1362686321030893</v>
+        <v>0.2824403194518652</v>
       </c>
       <c r="F25">
-        <v>0.8574401253461872</v>
+        <v>0.9794624725254408</v>
       </c>
       <c r="G25">
-        <v>0.7084027967966051</v>
+        <v>0.8998245331069938</v>
       </c>
       <c r="H25">
-        <v>0.7495253284996437</v>
+        <v>0.5274898887536494</v>
       </c>
       <c r="I25">
-        <v>0.4727009136054434</v>
+        <v>0.2157655262206433</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.8150117062861</v>
+        <v>2.68822265764058</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.3497574968171264</v>
+        <v>1.026592460781544</v>
       </c>
       <c r="N25">
-        <v>1.374996993277753</v>
+        <v>0.6173736890790096</v>
       </c>
       <c r="O25">
         <v>0</v>
